--- a/biology/Médecine/Desquamation/Desquamation.xlsx
+++ b/biology/Médecine/Desquamation/Desquamation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En dermatologie, la desquamation (du latin : desquamare, « écailler ») désigne la perte des couches superficielles de l'épiderme, le stratum corneum, sous formes d'amas cornéocytaires visibles appelés « squames ». Le terme d'« exfoliation » est aussi utilisé.
 En massothérapie, la desquamation est produite à la suite de différentes manœuvres. 
@@ -515,10 +527,12 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La desquamation se fait cornéocyte par cornéocyte, cette élimination étant donc inapparente (le cornéocyte est une cellule qui mesure environ 40 μm). Elle devient macroscopique et visible dans les états pelliculaires qui voient la perte de paquets de cornéocytes encore englués dans leur cément intercellulaire, ce phénomène étant dû à une anomalie de la différenciation de la couche cornée. Les cornéocytes se détachent de l’épiderme après la lyse du cément intercellulaire et des cornéodesmosomes, principalement sous l’action d’une enzyme sécrétée par les kératinosomes, la stéroïde-sulfatase[1].
-L'épiderme humain perd l'équivalent (car la perte n'est pas la même partout et diffère selon la région du corps) de deux couches tous les vingt jours, soit une moyenne de 0,1 couche par jour et il se renouvelle entièrement, selon les modèles expérimentaux, tous les 28 à 56 jours[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La desquamation se fait cornéocyte par cornéocyte, cette élimination étant donc inapparente (le cornéocyte est une cellule qui mesure environ 40 μm). Elle devient macroscopique et visible dans les états pelliculaires qui voient la perte de paquets de cornéocytes encore englués dans leur cément intercellulaire, ce phénomène étant dû à une anomalie de la différenciation de la couche cornée. Les cornéocytes se détachent de l’épiderme après la lyse du cément intercellulaire et des cornéodesmosomes, principalement sous l’action d’une enzyme sécrétée par les kératinosomes, la stéroïde-sulfatase.
+L'épiderme humain perd l'équivalent (car la perte n'est pas la même partout et diffère selon la région du corps) de deux couches tous les vingt jours, soit une moyenne de 0,1 couche par jour et il se renouvelle entièrement, selon les modèles expérimentaux, tous les 28 à 56 jours.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>croûte : c'est un coagulum à la surface d'une lésion suintante.
 Son aspect est variable suivant son origine :
